--- a/Wastewater_Effluent_Filtration/BW30LE_pH7.0.xlsx
+++ b/Wastewater_Effluent_Filtration/BW30LE_pH7.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1754920-B120-40D4-9805-EBBBBD485584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A2339-17F0-4A72-846E-8C1D1BACAA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,6 +158,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feed pH 7</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2074,20 +2100,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2133,23 +2145,10 @@
         <c:axId val="940672736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2194,7 +2193,12 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2834,16 +2838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536574</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>498474</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88899</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3161,7 +3165,7 @@
   <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
